--- a/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151026.xlsx
+++ b/iTreeWeb/iTreeweb组相关文档/任务文档/iTreemxc/网站组-马笑聪-20151026.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\DevelopmentDocument\iTreeWeb\iTreeweb组相关文档\任务文档\iTreemxc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8430"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
   <si>
     <t>iTree任务发布表</t>
   </si>
@@ -172,6 +177,14 @@
   </si>
   <si>
     <t>涉及到三个表的外键</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -191,6 +204,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -198,17 +212,27 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -338,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,43 +388,46 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,6 +439,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -748,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,14 +793,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -780,9 +810,9 @@
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -792,9 +822,9 @@
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -818,65 +848,65 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="138.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -888,92 +918,94 @@
       <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -985,88 +1017,90 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -1078,95 +1112,95 @@
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="38" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -1178,81 +1212,81 @@
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1275,47 +1309,47 @@
     <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="D40:F40"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1334,14 +1368,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1351,9 +1385,9 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -1363,9 +1397,9 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -1389,19 +1423,19 @@
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
@@ -1417,29 +1451,29 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1449,87 +1483,87 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -1539,97 +1573,97 @@
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
